--- a/contents/office2013/access/assets/Clist.xlsx
+++ b/contents/office2013/access/assets/Clist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\一郎\Desktop\サークル･バイト\eラン\Access\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\一郎\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="名簿" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>都道府県</t>
   </si>
   <si>
-    <t>携帯TEL</t>
-  </si>
-  <si>
     <t>入会年月日</t>
   </si>
   <si>
@@ -431,6 +428,13 @@
     <t>市区町村</t>
     <rPh sb="2" eb="4">
       <t>チョウソン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>携帯番号</t>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -984,7 +988,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1014,22 +1018,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
@@ -1037,22 +1041,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="4">
         <v>40694</v>
@@ -1061,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="6" t="b">
         <v>1</v>
@@ -1072,22 +1076,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="4">
         <v>40694</v>
@@ -1096,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="6" t="b">
         <v>1</v>
@@ -1107,22 +1111,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H4" s="4">
         <v>40694</v>
@@ -1131,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="6" t="b">
         <v>0</v>
@@ -1142,22 +1146,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H5" s="4">
         <v>40275</v>
@@ -1166,33 +1170,33 @@
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>41069</v>
@@ -1201,33 +1205,33 @@
         <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="4">
         <v>41133</v>
@@ -1236,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="6" t="b">
         <v>1</v>
@@ -1247,22 +1251,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H8" s="4">
         <v>41133</v>
@@ -1271,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="6" t="b">
         <v>0</v>
@@ -1282,22 +1286,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="4">
         <v>41267</v>
@@ -1306,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="6" t="b">
         <v>0</v>
@@ -1317,22 +1321,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="H10" s="4">
         <v>41369</v>
@@ -1341,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" s="6" t="b">
         <v>0</v>
@@ -1352,22 +1356,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="4">
         <v>41369</v>
@@ -1376,33 +1380,33 @@
         <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="H12" s="4">
         <v>41396</v>
@@ -1411,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="6" t="b">
         <v>0</v>
@@ -1422,22 +1426,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="4">
         <v>41409</v>
@@ -1446,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="6" t="b">
         <v>0</v>
@@ -1457,22 +1461,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="4">
         <v>41412</v>
@@ -1481,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" s="6" t="b">
         <v>0</v>
@@ -1492,22 +1496,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="H15" s="4">
         <v>41412</v>
@@ -1516,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" s="6" t="b">
         <v>0</v>
@@ -1527,22 +1531,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="4">
         <v>41732</v>
@@ -1551,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16" s="6" t="b">
         <v>0</v>
@@ -1562,22 +1566,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H17" s="4">
         <v>41732</v>
@@ -1586,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="6" t="b">
         <v>1</v>
@@ -1597,22 +1601,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H18" s="4">
         <v>41774</v>
@@ -1621,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" s="6" t="b">
         <v>0</v>
@@ -1632,22 +1636,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="4">
         <v>42100</v>
@@ -1656,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" s="6" t="b">
         <v>0</v>
@@ -1667,22 +1671,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="4">
         <v>42100</v>
@@ -1691,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="6" t="b">
         <v>0</v>

--- a/contents/office2013/access/assets/Clist.xlsx
+++ b/contents/office2013/access/assets/Clist.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\一郎\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hisashi/src/github.com/hatak/infolit/contents/office2013/access/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="名簿" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -432,10 +437,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>携帯番号</t>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
+    <t>携帯TEL</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -450,7 +452,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -499,7 +501,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -699,7 +701,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,9 +746,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -779,9 +781,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -988,20 +990,20 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="8" width="13.875" customWidth="1"/>
+    <col min="1" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1386,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1456,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
